--- a/src/main/webapp/files/car.xlsx
+++ b/src/main/webapp/files/car.xlsx
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学员密码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -383,23 +379,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -407,17 +403,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/files/car.xlsx
+++ b/src/main/webapp/files/car.xlsx
@@ -91,12 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -379,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,12 +400,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>5</v>
       </c>
